--- a/Резы/Респа для ПЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-51б на 2019 год.xlsx
@@ -1313,7 +1313,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>305
+          <t>310
 308</t>
         </is>
       </c>
@@ -1912,11 +1912,8 @@
           <t>Сетевое программное обеспечение: лекция (общ)</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>310
-308</t>
-        </is>
+      <c r="H3" s="3" t="n">
+        <v>308</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
@@ -1947,9 +1944,7 @@
           <t>Сетевое программное обеспечение: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>308</v>
-      </c>
+      <c r="H4" s="6" t="n"/>
       <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Шадрин Д.Б.</t>
@@ -2366,7 +2361,7 @@
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H3:H5"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="A14:A17"/>
@@ -2493,11 +2488,8 @@
           <t>Сетевое программное обеспечение: лекция (общ)</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>310
-308</t>
-        </is>
+      <c r="F3" s="3" t="n">
+        <v>308</v>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
@@ -2522,9 +2514,7 @@
           <t>Сетевое программное обеспечение: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>308</v>
-      </c>
+      <c r="F4" s="7" t="n"/>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Шадрин Д.Б.</t>
@@ -2786,7 +2776,7 @@
       <c r="G15" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
@@ -2799,6 +2789,7 @@
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A9:A11"/>

--- a/Резы/Респа для ПЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для ПЕ-51б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -107,17 +107,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -166,49 +166,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -222,7 +222,7 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -650,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1142,14 +1142,59 @@
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="7" t="n"/>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E22" s="18" t="n"/>
+      <c r="F22" s="8" t="n">
+        <v>314</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D13:E14"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D6:D7"/>
@@ -1160,6 +1205,7 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="G13:G16"/>
@@ -1181,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1736,8 +1782,53 @@
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="7" t="n"/>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E22" s="21" t="n"/>
+      <c r="F22" s="21" t="n"/>
+      <c r="G22" s="18" t="n"/>
+      <c r="H22" s="8" t="n">
+        <v>314</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
@@ -1754,11 +1845,14 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="I13:I14"/>
@@ -1778,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2335,8 +2429,53 @@
         </is>
       </c>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E22" s="21" t="n"/>
+      <c r="F22" s="21" t="n"/>
+      <c r="G22" s="18" t="n"/>
+      <c r="H22" s="8" t="n">
+        <v>314</v>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F5:G5"/>
@@ -2357,11 +2496,14 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="A14:A17"/>
@@ -2382,7 +2524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2775,8 +2917,51 @@
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
     </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B16" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="18" t="n"/>
+      <c r="F17" s="8" t="n">
+        <v>314</v>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
@@ -2786,10 +2971,13 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A9:A11"/>
